--- a/data/trans_dic/BARTHEL_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R3-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.4579036948077211</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2191742998665444</v>
+        <v>0.2191742998665445</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.09445858246558343</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02510984861338647</v>
+        <v>0.02500787511004978</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.11022086818981</v>
+        <v>0.1179658335433214</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.130039315460683</v>
+        <v>0.1449773189350422</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05848045691755693</v>
+        <v>0.05544840701966921</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02914744100081077</v>
+        <v>0.02858188579377908</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3995148556670267</v>
+        <v>0.3699173655318354</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.303411585241178</v>
+        <v>0.3080746699356842</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1541876996785784</v>
+        <v>0.1540537619958835</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04298461440252369</v>
+        <v>0.04176310012781616</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2923617018623713</v>
+        <v>0.2800956315620436</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.266287445235623</v>
+        <v>0.2701293393053639</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1226977415983133</v>
+        <v>0.1233912760729925</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2255596267198172</v>
+        <v>0.2298254239913172</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3624456628100189</v>
+        <v>0.3710334840531497</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3870870968531223</v>
+        <v>0.395908737528249</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1929247321943947</v>
+        <v>0.1955337198386931</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2294116895991788</v>
+        <v>0.2358979871223794</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6800767616689359</v>
+        <v>0.6768432990648421</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6137092171044399</v>
+        <v>0.6047519271528796</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3047290822984554</v>
+        <v>0.3006361045325562</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1876637602607311</v>
+        <v>0.18286236944022</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4962539065649998</v>
+        <v>0.4890149258792302</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4727487157856252</v>
+        <v>0.4799727756025291</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2336182866392403</v>
+        <v>0.2314363328426224</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.2864962499000623</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.363851105830819</v>
+        <v>0.3638511058308189</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1559191208942968</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05840356721309281</v>
+        <v>0.0563080987873101</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1262400392611134</v>
+        <v>0.1244412242570846</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03074073969421698</v>
+        <v>0.03328233028867643</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1057551874612912</v>
+        <v>0.1059804683465904</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1167057541482445</v>
+        <v>0.1089915654535015</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2718199726775193</v>
+        <v>0.2840847767356557</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1939141279518605</v>
+        <v>0.1954858560277525</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2997624265681095</v>
+        <v>0.2991716240447338</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1007702721378108</v>
+        <v>0.1079683767003218</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2442946885355964</v>
+        <v>0.2472264696703483</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1388004918392897</v>
+        <v>0.1368135831866434</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2363190987481107</v>
+        <v>0.2417878311885746</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2140114079281407</v>
+        <v>0.2149880436226201</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3538310760886187</v>
+        <v>0.3485908453183452</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.142024441162815</v>
+        <v>0.143307061863205</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2557624515145833</v>
+        <v>0.2546060177097216</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2715060281857563</v>
+        <v>0.2659146100697129</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4842650912018794</v>
+        <v>0.4728800208783435</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3761292696206876</v>
+        <v>0.3855875575013286</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4300260023186691</v>
+        <v>0.4283749232976259</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2160390159776995</v>
+        <v>0.2175338140977498</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3919252163827077</v>
+        <v>0.3892359986940617</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2596401963391878</v>
+        <v>0.2550724685442634</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3391909257388308</v>
+        <v>0.3448310816737303</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1293397253348684</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.303204561502001</v>
+        <v>0.3032045615020009</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.201740545405985</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01911656506042025</v>
+        <v>0.01902596900258789</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09407596121986207</v>
+        <v>0.1109370429473161</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06761389909817991</v>
+        <v>0.06576905470748838</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2295928511560891</v>
+        <v>0.2294777930108763</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.122134513277658</v>
+        <v>0.1206900135174721</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1605128068072949</v>
+        <v>0.1807028567006222</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0862047306555333</v>
+        <v>0.08366696798450454</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3982920534621477</v>
+        <v>0.396041565378727</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.10071837356276</v>
+        <v>0.09894748118253227</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1662199991292069</v>
+        <v>0.1768051522669895</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.09553698539277486</v>
+        <v>0.09634643560240191</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3391850279330907</v>
+        <v>0.339187574678656</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1732166447293817</v>
+        <v>0.186570523377325</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3349798846195852</v>
+        <v>0.344374739463616</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2299540058366479</v>
+        <v>0.2177540539340243</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3925005099289056</v>
+        <v>0.3885831025318787</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3078383062303435</v>
+        <v>0.3037284124454656</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3646842109628364</v>
+        <v>0.3748266692523158</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2645031320031471</v>
+        <v>0.2744535407465732</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5497753891712228</v>
+        <v>0.5496897972497147</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2296649007739553</v>
+        <v>0.227568029638714</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.323893208325891</v>
+        <v>0.33021312649743</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2174501972670185</v>
+        <v>0.2242087621502783</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4530492374985894</v>
+        <v>0.4513295122189516</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01692255726970789</v>
+        <v>0.01539267178401727</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1124209393518281</v>
+        <v>0.1129392550543016</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1418530946328148</v>
+        <v>0.1368682322503969</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1204365436728142</v>
+        <v>0.1272613041143175</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1617666370455867</v>
+        <v>0.1515024612366163</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2428825845344877</v>
+        <v>0.2468659411333779</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2483069338073735</v>
+        <v>0.2407226263957196</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2462739272754838</v>
+        <v>0.2397132711062228</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1158369528696554</v>
+        <v>0.1095219678802522</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2114950026583747</v>
+        <v>0.2129725423378321</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2273962212844712</v>
+        <v>0.223765825808684</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2029118434247352</v>
+        <v>0.202306958263703</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1452906014318133</v>
+        <v>0.1459611695925604</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3136185667446065</v>
+        <v>0.3077260482540953</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3391440583928801</v>
+        <v>0.3302428278747128</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2545928323213308</v>
+        <v>0.2645549427057369</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3565490678291515</v>
+        <v>0.3476800906114578</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4502839127991657</v>
+        <v>0.458090223572965</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4563478196438043</v>
+        <v>0.4664691403303143</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3579811683767105</v>
+        <v>0.3517696207483075</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2445632318667466</v>
+        <v>0.2447039879807677</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3602391907913211</v>
+        <v>0.3540553364106046</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3788901305799961</v>
+        <v>0.3772454080963931</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2904144215589601</v>
+        <v>0.2910769889812928</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.09784988998318822</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2838262704331491</v>
+        <v>0.283826270433149</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3117235265346593</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1122331677240495</v>
+        <v>0.1153298776566087</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09614244432473182</v>
+        <v>0.07544064711585929</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03821683229714558</v>
+        <v>0.03777153637870494</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1827186272401632</v>
+        <v>0.195366347898039</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1608047685583196</v>
+        <v>0.1805914635810077</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3080308956104474</v>
+        <v>0.3146667214368036</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2862120191216989</v>
+        <v>0.2795012381859682</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2699939740537096</v>
+        <v>0.2684187530425883</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1886754883437116</v>
+        <v>0.1794980237910107</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2567394312576119</v>
+        <v>0.2519647748037381</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1843181950323632</v>
+        <v>0.182797229158092</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2551266127378041</v>
+        <v>0.2626346255565445</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4015700815760653</v>
+        <v>0.3968997120702285</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3782533166349576</v>
+        <v>0.4126428728713586</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2144738539286526</v>
+        <v>0.2012412598333008</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3981950368439491</v>
+        <v>0.4028988808643044</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.45927130905714</v>
+        <v>0.4778182962168012</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5898475914652074</v>
+        <v>0.5914184811920905</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5710561974413787</v>
+        <v>0.5631400857891552</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4249390629049339</v>
+        <v>0.4253578074964308</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4005428411467699</v>
+        <v>0.3992958917978565</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4667059118670071</v>
+        <v>0.4770988048587932</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3771663466040361</v>
+        <v>0.3727491433750806</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.381804609359591</v>
+        <v>0.3874700307091692</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0588132697175832</v>
+        <v>0.05711287109771182</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1638265212466892</v>
+        <v>0.1626429011272549</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1794182382051456</v>
+        <v>0.1708891414831597</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2896396038381061</v>
+        <v>0.2873745473546576</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1231706888781674</v>
+        <v>0.1162469868958863</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1831823304951624</v>
+        <v>0.183115019698446</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2431225512935584</v>
+        <v>0.2591243029783465</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4329651788045826</v>
+        <v>0.4353089268719462</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.109614696037374</v>
+        <v>0.11392993708536</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2018079761802839</v>
+        <v>0.2026054166239322</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2471937055987871</v>
+        <v>0.2539104108163493</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3811511751426709</v>
+        <v>0.3904789679793736</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2419570933984704</v>
+        <v>0.2389391128979</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4061155496445126</v>
+        <v>0.3951389798759934</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4173252511326327</v>
+        <v>0.3948518567359352</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4510510557145132</v>
+        <v>0.4503295641009751</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3284989467250317</v>
+        <v>0.3163338659506224</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4055599367036753</v>
+        <v>0.4031495808950509</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5038365469247865</v>
+        <v>0.5183397211520303</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5895668941470594</v>
+        <v>0.5863069233899549</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.259675164715627</v>
+        <v>0.262974735032329</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3712867597341286</v>
+        <v>0.3647213513011748</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4306935235258342</v>
+        <v>0.435883951353333</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4927757692486278</v>
+        <v>0.4955387656397719</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.3859106455325948</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.4380208693973146</v>
+        <v>0.4380208693973145</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.1023285983273821</v>
@@ -1513,7 +1513,7 @@
         <v>0.314654988329869</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.3407960702626901</v>
+        <v>0.34079607026269</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03949497421123987</v>
+        <v>0.03991798544543585</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1186544277777605</v>
+        <v>0.120107203491222</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1497786563934109</v>
+        <v>0.1457436914287581</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1766582983832697</v>
+        <v>0.1750656116202059</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0705076778403257</v>
+        <v>0.0695023096267631</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1939657502695632</v>
+        <v>0.1988820098025166</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2992780929299296</v>
+        <v>0.2985170992009104</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3657245460158624</v>
+        <v>0.3722428353435013</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06510229169030067</v>
+        <v>0.06651601366841306</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1786355649999439</v>
+        <v>0.1796138851202996</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2598430039622944</v>
+        <v>0.2522087621201153</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2972044718279623</v>
+        <v>0.2929054633721562</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1503253839659442</v>
+        <v>0.1411699917673743</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2818092417004197</v>
+        <v>0.2789747653468077</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3062779965168245</v>
+        <v>0.305194210837233</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3028307041277184</v>
+        <v>0.3106239945667245</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1911940802777185</v>
+        <v>0.1944263934981689</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3570726519014139</v>
+        <v>0.3600357169572397</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4713632107645492</v>
+        <v>0.4657900445913343</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4984435151595983</v>
+        <v>0.5031512974370534</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1431930101403783</v>
+        <v>0.1497130237616395</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2913052982988381</v>
+        <v>0.2924396256811606</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.385745245937173</v>
+        <v>0.3729283234227399</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3876338281931098</v>
+        <v>0.3864923513954457</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.1790735852586528</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.261942458254517</v>
+        <v>0.2619424582545171</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1598042729071703</v>
+        <v>0.1582859324815932</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.05415087941056914</v>
+        <v>0.05343049808204844</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.09107346596568436</v>
+        <v>0.09449499434657081</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1097618047463431</v>
+        <v>0.1103180519988557</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1951513909844171</v>
+        <v>0.1973565088576339</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1660458627698944</v>
+        <v>0.1722128982988158</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1505177197139035</v>
+        <v>0.1421716961665516</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.291642316076466</v>
+        <v>0.2954967233851999</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1983941161300206</v>
+        <v>0.2024290419846447</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1332618037442542</v>
+        <v>0.1358388943477038</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1321431818286184</v>
+        <v>0.1367898621400902</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2274727806400196</v>
+        <v>0.2273775062466126</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3101906976720684</v>
+        <v>0.319931853201439</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1739336606256507</v>
+        <v>0.1802664084643666</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2095659088808252</v>
+        <v>0.2129100178853247</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2111394460995579</v>
+        <v>0.2034091135411213</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3371921925133824</v>
+        <v>0.3469236213847776</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.304781596518942</v>
+        <v>0.3146767273456871</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2872604458057572</v>
+        <v>0.2783186863806536</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3979607161911666</v>
+        <v>0.4007780721897012</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.315654056443027</v>
+        <v>0.3119861822242709</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2266432136036397</v>
+        <v>0.2316782857014489</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2341204727925134</v>
+        <v>0.2351175906201411</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.305585384613048</v>
+        <v>0.2995426934162217</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1037247057035059</v>
+        <v>0.1090521764672224</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1552220075980543</v>
+        <v>0.1541556883794856</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1385003002099361</v>
+        <v>0.1428452591894323</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1859811937598049</v>
+        <v>0.1870514085849808</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1739478288141547</v>
+        <v>0.1749780444567464</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2809067922075277</v>
+        <v>0.2790691775635055</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2754652111684676</v>
+        <v>0.2758804875720276</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3517014944868007</v>
+        <v>0.3511365589122895</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1531785390248151</v>
+        <v>0.1513335345831459</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2376637631065261</v>
+        <v>0.2390441520098748</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.2248616582944365</v>
+        <v>0.2256736218239512</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.2838993671348108</v>
+        <v>0.285468907587871</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1620223175132444</v>
+        <v>0.166770214699991</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2258754894346823</v>
+        <v>0.2255376232233162</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1983937882390514</v>
+        <v>0.2001554405694869</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2359811115907599</v>
+        <v>0.238504725572117</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2393108578827693</v>
+        <v>0.2399460325688745</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3517002634050367</v>
+        <v>0.3490904160434973</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3427012662500459</v>
+        <v>0.3462514894462421</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.396627477945499</v>
+        <v>0.3986425699350165</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1970931828606378</v>
+        <v>0.1956882480524964</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2886708421729258</v>
+        <v>0.2864789331249478</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.2727404514158015</v>
+        <v>0.2730707726531796</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.3200594309148788</v>
+        <v>0.3210898643464045</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4881</v>
+        <v>5224</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5058</v>
+        <v>5639</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3565</v>
+        <v>3380</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1143</v>
+        <v>1121</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>19534</v>
+        <v>18087</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>14986</v>
+        <v>15216</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>10065</v>
+        <v>10056</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3207</v>
+        <v>3116</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>27241</v>
+        <v>26098</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>23510</v>
+        <v>23849</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>15488</v>
+        <v>15576</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7982</v>
+        <v>8133</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16049</v>
+        <v>16430</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15056</v>
+        <v>15399</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>11760</v>
+        <v>11919</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9000</v>
+        <v>9255</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>33252</v>
+        <v>33094</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>30312</v>
+        <v>29869</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>19891</v>
+        <v>19624</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>14003</v>
+        <v>13645</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>46238</v>
+        <v>45564</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>41738</v>
+        <v>42375</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>29490</v>
+        <v>29214</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3893</v>
+        <v>3753</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9999</v>
+        <v>9856</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2684</v>
+        <v>2905</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9346</v>
+        <v>9366</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11423</v>
+        <v>10668</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>27751</v>
+        <v>29003</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>22344</v>
+        <v>22525</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>40384</v>
+        <v>40304</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>16580</v>
+        <v>17764</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>44290</v>
+        <v>44821</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>28110</v>
+        <v>27708</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>52721</v>
+        <v>53941</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14265</v>
+        <v>14330</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28024</v>
+        <v>27609</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12398</v>
+        <v>12510</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>22602</v>
+        <v>22500</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>26574</v>
+        <v>26026</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>49440</v>
+        <v>48278</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>43341</v>
+        <v>44430</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>57933</v>
+        <v>57710</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>35545</v>
+        <v>35791</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>71054</v>
+        <v>70567</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>52583</v>
+        <v>51658</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>75671</v>
+        <v>76929</v>
       </c>
     </row>
     <row r="12">
@@ -2508,37 +2508,37 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5244</v>
+        <v>6184</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4297</v>
+        <v>4179</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>16596</v>
+        <v>16588</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10201</v>
+        <v>10080</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>12836</v>
+        <v>14450</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6887</v>
+        <v>6685</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>33483</v>
+        <v>33294</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>13543</v>
+        <v>13305</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>22558</v>
+        <v>23994</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>13704</v>
+        <v>13820</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>53032</v>
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8824</v>
+        <v>9504</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18672</v>
+        <v>19196</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14613</v>
+        <v>13837</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>28372</v>
+        <v>28089</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>25711</v>
+        <v>25368</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>29163</v>
+        <v>29974</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>21133</v>
+        <v>21928</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>46217</v>
+        <v>46210</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>30881</v>
+        <v>30599</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>43956</v>
+        <v>44813</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>31192</v>
+        <v>32161</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>70835</v>
+        <v>70566</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>933</v>
+        <v>848</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7198</v>
+        <v>7231</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9180</v>
+        <v>8857</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10015</v>
+        <v>10583</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12021</v>
+        <v>11259</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>20784</v>
+        <v>21125</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>22738</v>
+        <v>22044</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>27214</v>
+        <v>26489</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>14993</v>
+        <v>14176</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>31640</v>
+        <v>31861</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>35539</v>
+        <v>34971</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>39296</v>
+        <v>39179</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8009</v>
+        <v>8046</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>20080</v>
+        <v>19703</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>21947</v>
+        <v>21371</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>21171</v>
+        <v>21999</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>26496</v>
+        <v>25837</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>38533</v>
+        <v>39201</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>41790</v>
+        <v>42716</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>39558</v>
+        <v>38872</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>31655</v>
+        <v>31674</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>53893</v>
+        <v>52967</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>59215</v>
+        <v>58958</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>56242</v>
+        <v>56370</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3294</v>
+        <v>3385</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3039</v>
+        <v>2385</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1608</v>
+        <v>1589</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>6578</v>
+        <v>7033</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6633</v>
+        <v>7449</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>15357</v>
+        <v>15688</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>14463</v>
+        <v>14124</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>16421</v>
+        <v>16325</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>13319</v>
+        <v>12671</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>20916</v>
+        <v>20527</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>17070</v>
+        <v>16929</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>24701</v>
+        <v>25428</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>11785</v>
+        <v>11648</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11957</v>
+        <v>13044</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9025</v>
+        <v>8468</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>14335</v>
+        <v>14505</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>18943</v>
+        <v>19708</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>29407</v>
+        <v>29485</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>28857</v>
+        <v>28457</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>25844</v>
+        <v>25870</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>28276</v>
+        <v>28187</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>38021</v>
+        <v>38868</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>34930</v>
+        <v>34521</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>36966</v>
+        <v>37515</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2776</v>
+        <v>2695</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8479</v>
+        <v>8418</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>8692</v>
+        <v>8279</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>17443</v>
+        <v>17307</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>8660</v>
+        <v>8173</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>12862</v>
+        <v>12857</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>16384</v>
+        <v>17462</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>29142</v>
+        <v>29300</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>12880</v>
+        <v>13387</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>24614</v>
+        <v>24711</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>28633</v>
+        <v>29411</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>48609</v>
+        <v>49799</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11419</v>
+        <v>11277</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>21019</v>
+        <v>20451</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>20218</v>
+        <v>19129</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>27164</v>
+        <v>27121</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>23096</v>
+        <v>22241</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>28475</v>
+        <v>28306</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>33953</v>
+        <v>34930</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>39683</v>
+        <v>39464</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>30513</v>
+        <v>30901</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>45285</v>
+        <v>44484</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>49889</v>
+        <v>50490</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>62845</v>
+        <v>63197</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4184</v>
+        <v>4228</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>13321</v>
+        <v>13484</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>16803</v>
+        <v>16350</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>26558</v>
+        <v>26319</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>8258</v>
+        <v>8140</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>27536</v>
+        <v>28234</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>44181</v>
+        <v>44069</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>59551</v>
+        <v>60612</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>14521</v>
+        <v>14836</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>45414</v>
+        <v>45663</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>67510</v>
+        <v>65526</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>93075</v>
+        <v>91729</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>15924</v>
+        <v>14954</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>31637</v>
+        <v>31319</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>34360</v>
+        <v>34238</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>45527</v>
+        <v>46698</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>22393</v>
+        <v>22771</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>50691</v>
+        <v>51111</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>69585</v>
+        <v>68762</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>81162</v>
+        <v>81928</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>31939</v>
+        <v>33393</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>74057</v>
+        <v>74346</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>100220</v>
+        <v>96891</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>121395</v>
+        <v>121037</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>17881</v>
+        <v>17711</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>6539</v>
+        <v>6452</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>12219</v>
+        <v>12678</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>17880</v>
+        <v>17971</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>29902</v>
+        <v>30240</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>27301</v>
+        <v>28315</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>26536</v>
+        <v>25064</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>61715</v>
+        <v>62531</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>52598</v>
+        <v>53668</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>38002</v>
+        <v>38737</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>41026</v>
+        <v>42468</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>85192</v>
+        <v>85156</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>34708</v>
+        <v>35798</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>21003</v>
+        <v>21768</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>28117</v>
+        <v>28566</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>34395</v>
+        <v>33136</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>51666</v>
+        <v>53157</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>50111</v>
+        <v>51738</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>50643</v>
+        <v>49067</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>84213</v>
+        <v>84809</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>83686</v>
+        <v>82713</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>64632</v>
+        <v>66067</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>72686</v>
+        <v>72996</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>114446</v>
+        <v>112183</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>52118</v>
+        <v>54795</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>86868</v>
+        <v>86271</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>81899</v>
+        <v>84468</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>132834</v>
+        <v>133598</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>117735</v>
+        <v>118432</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>208707</v>
+        <v>207341</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>214293</v>
+        <v>214616</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>315524</v>
+        <v>315017</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>180645</v>
+        <v>178469</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>309584</v>
+        <v>311382</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>307894</v>
+        <v>309006</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>457466</v>
+        <v>459995</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>81411</v>
+        <v>83796</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>126408</v>
+        <v>126219</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>117316</v>
+        <v>118358</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>168545</v>
+        <v>170348</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>161976</v>
+        <v>162406</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>261305</v>
+        <v>259365</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>266598</v>
+        <v>269360</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>355828</v>
+        <v>357636</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>232434</v>
+        <v>230777</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>376026</v>
+        <v>373171</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>373452</v>
+        <v>373905</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>515734</v>
+        <v>517394</v>
       </c>
     </row>
     <row r="40">
